--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_Honeywell International - Geismar Complex.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_Honeywell International - Geismar Complex.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="F9" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="C10" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.43</v>
       </c>
-      <c r="D10" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.53</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="C9" t="n">
-        <v>24</v>
+        <v>9.5</v>
       </c>
       <c r="D9" t="n">
-        <v>64</v>
+        <v>8.2</v>
       </c>
       <c r="E9" t="n">
-        <v>61</v>
+        <v>7.1</v>
       </c>
       <c r="F9" t="n">
-        <v>57</v>
+        <v>6.6</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="C10" t="n">
-        <v>0.084</v>
+        <v>0.083</v>
       </c>
       <c r="D10" t="n">
         <v>0.05</v>
@@ -881,7 +881,7 @@
         <v>0.085</v>
       </c>
       <c r="G10" t="n">
-        <v>0.066</v>
+        <v>0.057</v>
       </c>
     </row>
   </sheetData>
